--- a/Hardware/ASML.xlsx
+++ b/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64361DB5-3F60-4A47-A0CD-8AA86BD046AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF68EF-B546-D747-92F8-8A4D28496B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1941,9 +1941,11 @@
     <v>Powered by Refinitiv</v>
     <v>1110.0899999999999</v>
     <v>633.53</v>
-    <v>1.5029999999999999</v>
-    <v>-15.03</v>
-    <v>-2.2219000000000003E-2</v>
+    <v>1.4897</v>
+    <v>15.78</v>
+    <v>2.3857E-2</v>
+    <v>1.29</v>
+    <v>1.905E-3</v>
     <v>USD</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>42372</v>
@@ -1951,24 +1953,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>673.04</v>
+    <v>679.84</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45602.999543575781</v>
+    <v>45604.04127787031</v>
     <v>0</v>
-    <v>654.77</v>
-    <v>271208400000</v>
+    <v>669.81010000000003</v>
+    <v>266765400000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>668.55</v>
-    <v>33.690899999999999</v>
-    <v>676.46</v>
+    <v>674.11</v>
+    <v>34.494599999999998</v>
     <v>661.43</v>
+    <v>677.21</v>
+    <v>678.5</v>
     <v>399584700</v>
     <v>ASML</v>
     <v>ASML Holding NV (XNAS:ASML)</v>
-    <v>4067</v>
-    <v>2487287</v>
+    <v>1758311</v>
+    <v>2579695</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2000,6 +2003,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2020,6 +2025,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2036,7 +2042,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2047,13 +2053,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2119,13 +2128,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2170,6 +2185,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2177,6 +2195,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2877,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>661.43</v>
+        <v>677.21</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>8.7486580645161283</v>
+        <v>8.6053354838709684</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2924,14 +2945,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.2219000000000003E-2</v>
+        <v>2.3857E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>33.732388059701492</v>
+        <v>33.179776119402987</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2972,14 +2993,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>271208400000</v>
+        <v>266765400000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.6031642087781942E-2</v>
+        <v>2.6465201259233767E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3021,7 +3042,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.5029999999999999</v>
+        <v>1.4897</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.19871967737444907</v>
+        <v>-0.21739070038212949</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/ASML.xlsx
+++ b/Hardware/ASML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF68EF-B546-D747-92F8-8A4D28496B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281460C-A8E3-9A46-A6F7-67A2CF7A8B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,12 +1940,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1110.0899999999999</v>
-    <v>633.53</v>
-    <v>1.4897</v>
-    <v>15.78</v>
-    <v>2.3857E-2</v>
-    <v>1.29</v>
-    <v>1.905E-3</v>
+    <v>648</v>
+    <v>1.4946999999999999</v>
+    <v>-3.07</v>
+    <v>-4.6150000000000002E-3</v>
+    <v>1.31</v>
+    <v>1.9780000000000002E-3</v>
     <v>USD</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>42372</v>
@@ -1953,25 +1953,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>679.84</v>
+    <v>671.41</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45604.04127787031</v>
+    <v>45616.041167731251</v>
     <v>0</v>
-    <v>669.81010000000003</v>
-    <v>266765400000</v>
+    <v>653.4701</v>
+    <v>265188000000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>674.11</v>
-    <v>34.494599999999998</v>
-    <v>661.43</v>
-    <v>677.21</v>
-    <v>678.5</v>
+    <v>662.82</v>
+    <v>33.884399999999999</v>
+    <v>665.23</v>
+    <v>662.16</v>
+    <v>663.47</v>
     <v>399584700</v>
     <v>ASML</v>
     <v>ASML Holding NV (XNAS:ASML)</v>
-    <v>1758311</v>
-    <v>2579695</v>
+    <v>1640722</v>
+    <v>2974772</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2898,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>677.21</v>
+        <v>662.16</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>8.6053354838709684</v>
+        <v>8.5544516129032253</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2945,14 +2945,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.3857E-2</v>
+        <v>-4.6150000000000002E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>33.179776119402987</v>
+        <v>32.983582089552236</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2993,14 +2993,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>266765400000</v>
+        <v>265188000000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.6465201259233767E-2</v>
+        <v>2.6622622441437774E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3042,7 +3042,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.4897</v>
+        <v>1.4946999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.21739070038212949</v>
+        <v>-0.1996030509329797</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
